--- a/2022/Symphony/Others/RK Mobile King Imei - Copy.xlsx
+++ b/2022/Symphony/Others/RK Mobile King Imei - Copy.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Realme" sheetId="1" r:id="rId1"/>
     <sheet name="Symphony" sheetId="2" r:id="rId2"/>
+    <sheet name="Entry OK" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="56">
   <si>
     <t>RK Mobile King</t>
   </si>
@@ -116,6 +117,78 @@
   </si>
   <si>
     <t>Symphony Mobile Imei</t>
+  </si>
+  <si>
+    <t>IMEI1 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL # </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INVOICE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMEI1 </t>
+  </si>
+  <si>
+    <t>INV-0048-10041402</t>
+  </si>
+  <si>
+    <t>T92_SKD</t>
+  </si>
+  <si>
+    <t>L43_SKD</t>
+  </si>
+  <si>
+    <t>S45_SKD</t>
+  </si>
+  <si>
+    <t>D82_SKD</t>
+  </si>
+  <si>
+    <t>D48_SKD</t>
+  </si>
+  <si>
+    <t>L46_SKD</t>
+  </si>
+  <si>
+    <t>L33_SKD</t>
+  </si>
+  <si>
+    <t>L44_SKD</t>
+  </si>
+  <si>
+    <t>D54+_SKD</t>
+  </si>
+  <si>
+    <t>L270_SKD</t>
+  </si>
+  <si>
+    <t>L260_SKD</t>
+  </si>
+  <si>
+    <t>D47_SKD</t>
+  </si>
+  <si>
+    <t>BL96_SKD</t>
+  </si>
+  <si>
+    <t>L140_SKD</t>
+  </si>
+  <si>
+    <t>L135_SKD</t>
+  </si>
+  <si>
+    <t>BL99_SKD</t>
+  </si>
+  <si>
+    <t>BL120_SKD</t>
+  </si>
+  <si>
+    <t>B69_SKD</t>
   </si>
 </sst>
 </file>
@@ -189,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -215,7 +288,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -500,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,10 +594,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -739,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,14 +833,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -782,82 +864,74 @@
     </row>
     <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>355645525849140</v>
+        <v>355645525848886</v>
       </c>
       <c r="B3" s="4">
-        <v>357559442799767</v>
+        <v>357559442798108</v>
       </c>
       <c r="C3" s="4">
-        <v>354150814989385</v>
-      </c>
-      <c r="D3" s="4">
         <v>354150814997180</v>
       </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="4">
-        <v>355482207474462</v>
+        <v>355482207591620</v>
       </c>
       <c r="F3" s="4">
-        <v>351251782206803</v>
+        <v>351251782161362</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>355645525858166</v>
+        <v>355645525849025</v>
       </c>
       <c r="B4" s="4">
-        <v>357559442799726</v>
+        <v>357559442798082</v>
       </c>
       <c r="C4" s="4">
-        <v>354150814989369</v>
-      </c>
-      <c r="D4" s="4">
-        <v>354150814997107</v>
-      </c>
+        <v>354150814997305</v>
+      </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="4">
-        <v>355482206893902</v>
+        <v>355482206891484</v>
       </c>
       <c r="F4" s="4">
-        <v>351251782161487</v>
+        <v>351251782169126</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>355645525855865</v>
+        <v>355645525849140</v>
       </c>
       <c r="B5" s="4">
-        <v>357559442797605</v>
+        <v>357559442799767</v>
       </c>
       <c r="C5" s="4">
-        <v>354150814989401</v>
-      </c>
-      <c r="D5" s="4">
-        <v>354150814996901</v>
-      </c>
+        <v>354150814996943</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="4">
-        <v>355482207034548</v>
+        <v>355482207474462</v>
       </c>
       <c r="F5" s="4">
-        <v>351251782197440</v>
+        <v>351251782206803</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>355645525855568</v>
+        <v>355645525855360</v>
       </c>
       <c r="B6" s="4">
-        <v>357559442797969</v>
+        <v>357559442798009</v>
       </c>
       <c r="C6" s="4">
-        <v>354150814996984</v>
-      </c>
-      <c r="D6" s="4">
-        <v>354150814997008</v>
-      </c>
+        <v>354150814997420</v>
+      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="4">
-        <v>355482206892086</v>
+        <v>355482206953888</v>
       </c>
       <c r="F6" s="4">
-        <v>351251782162568</v>
+        <v>351251782168946</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -868,11 +942,9 @@
         <v>357559442797563</v>
       </c>
       <c r="C7" s="4">
-        <v>354150814997149</v>
-      </c>
-      <c r="D7" s="4">
-        <v>354150814996885</v>
-      </c>
+        <v>354150814997107</v>
+      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="4">
         <v>355482206859341</v>
       </c>
@@ -882,97 +954,81 @@
     </row>
     <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>355645525848886</v>
+        <v>355645525855501</v>
       </c>
       <c r="B8" s="4">
-        <v>357559442798108</v>
+        <v>357559442797902</v>
       </c>
       <c r="C8" s="4">
-        <v>354150814997065</v>
-      </c>
-      <c r="D8" s="4">
-        <v>354150814996042</v>
-      </c>
+        <v>354150814996885</v>
+      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="4">
-        <v>355482207591620</v>
+        <v>355482206956667</v>
       </c>
       <c r="F8" s="4">
-        <v>351251782161362</v>
+        <v>351251782203669</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>355645525849025</v>
+        <v>355645525855865</v>
       </c>
       <c r="B9" s="4">
-        <v>357559442798082</v>
+        <v>357559442797605</v>
       </c>
       <c r="C9" s="4">
-        <v>354150814997420</v>
-      </c>
-      <c r="D9" s="4">
-        <v>354150814996943</v>
-      </c>
+        <v>354150814996083</v>
+      </c>
+      <c r="D9" s="4"/>
       <c r="E9" s="4">
-        <v>355482206891484</v>
+        <v>355482207034548</v>
       </c>
       <c r="F9" s="4">
-        <v>351251782169126</v>
+        <v>351251782197440</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>355645525855360</v>
-      </c>
+      <c r="A10" s="4"/>
       <c r="B10" s="4">
-        <v>357559442798009</v>
+        <v>357559442799726</v>
       </c>
       <c r="C10" s="4">
-        <v>354150814996083</v>
-      </c>
-      <c r="D10" s="4">
-        <v>354150814996927</v>
-      </c>
+        <v>354150814989401</v>
+      </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="4">
-        <v>355482206953888</v>
+        <v>355482206893902</v>
       </c>
       <c r="F10" s="4">
-        <v>351251782168946</v>
+        <v>351251782161487</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>355645525855501</v>
-      </c>
+      <c r="A11" s="4"/>
       <c r="B11" s="4">
-        <v>357559442797902</v>
+        <v>357559442797969</v>
       </c>
       <c r="C11" s="4">
-        <v>354150814997305</v>
-      </c>
-      <c r="D11" s="4">
-        <v>354150814997164</v>
-      </c>
+        <v>354150814996901</v>
+      </c>
+      <c r="D11" s="4"/>
       <c r="E11" s="4">
-        <v>355482206956667</v>
+        <v>355482206892086</v>
       </c>
       <c r="F11" s="4">
-        <v>351251782203669</v>
+        <v>351251782162568</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>355645525849108</v>
-      </c>
+      <c r="A12" s="4"/>
       <c r="B12" s="4">
         <v>357559442797860</v>
       </c>
       <c r="C12" s="4">
-        <v>354150814995705</v>
-      </c>
-      <c r="D12" s="4">
-        <v>354150814989427</v>
-      </c>
+        <v>354150814997008</v>
+      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="4">
         <v>355482207469389</v>
       </c>
@@ -1002,104 +1058,84 @@
       </c>
     </row>
     <row r="15" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>352611791354309</v>
-      </c>
+      <c r="A15" s="4"/>
       <c r="B15" s="4">
-        <v>350954042972988</v>
+        <v>350954043341043</v>
       </c>
       <c r="C15" s="4">
-        <v>358425756399165</v>
+        <v>358425756278880</v>
       </c>
       <c r="D15" s="4">
-        <v>351805994865589</v>
+        <v>351805994880646</v>
       </c>
       <c r="E15" s="4">
-        <v>351130091115725</v>
+        <v>356035118526744</v>
       </c>
       <c r="F15" s="4">
-        <v>357599272379025</v>
+        <v>357599272380726</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>352611791035429</v>
+        <v>352611792303685</v>
       </c>
       <c r="B16" s="4">
-        <v>350954043341142</v>
+        <v>350954043645401</v>
       </c>
       <c r="C16" s="4">
+        <v>358425756399165</v>
+      </c>
+      <c r="D16" s="4">
+        <v>351805994865589</v>
+      </c>
+      <c r="E16" s="4">
+        <v>351130091115725</v>
+      </c>
+      <c r="F16" s="4">
+        <v>357599272379025</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4">
         <v>358425756401185</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D17" s="4">
         <v>351805994880620</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E17" s="4">
         <v>356035119724504</v>
       </c>
-      <c r="F16" s="4">
-        <v>357599272779380</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>352611792303685</v>
-      </c>
-      <c r="B17" s="4">
-        <v>350954043645401</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4">
         <v>358425756386089</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D18" s="4">
         <v>351805994865647</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E18" s="4">
         <v>351130091116483</v>
       </c>
-      <c r="F17" s="4">
-        <v>357599272363409</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>352611791154105</v>
-      </c>
-      <c r="B18" s="4">
-        <v>350954043341084</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4">
         <v>358425756287360</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D19" s="4">
         <v>351805994876222</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E19" s="4">
         <v>356035118530803</v>
       </c>
-      <c r="F18" s="4">
-        <v>357599272378985</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>352611792269563</v>
-      </c>
-      <c r="B19" s="4">
-        <v>350954043341043</v>
-      </c>
-      <c r="C19" s="4">
-        <v>358425756278880</v>
-      </c>
-      <c r="D19" s="4">
-        <v>351805994880646</v>
-      </c>
-      <c r="E19" s="4">
-        <v>356035118526744</v>
-      </c>
-      <c r="F19" s="4">
-        <v>357599272380726</v>
-      </c>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1123,44 +1159,28 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="7">
         <v>359946902381186</v>
       </c>
       <c r="B22" s="4">
         <v>357398297337724</v>
       </c>
-      <c r="C22" s="4">
-        <v>350942911898244</v>
-      </c>
-      <c r="D22" s="4">
-        <v>352620201365300</v>
-      </c>
-      <c r="E22" s="4">
-        <v>353127551235009</v>
-      </c>
-      <c r="F22" s="4">
-        <v>355964112977044</v>
-      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>359946902180323</v>
-      </c>
+      <c r="A23" s="4"/>
       <c r="B23" s="4">
         <v>357398297333988</v>
       </c>
       <c r="C23" s="4">
         <v>350942913677547</v>
       </c>
-      <c r="D23" s="4">
-        <v>352620201036182</v>
-      </c>
-      <c r="E23" s="4">
-        <v>353127551033800</v>
-      </c>
-      <c r="F23" s="4">
-        <v>355964112825821</v>
-      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -1187,9 +1207,7 @@
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>359946902294082</v>
-      </c>
+      <c r="A26" s="4"/>
       <c r="B26" s="4">
         <v>357398297033323</v>
       </c>
@@ -1241,9 +1259,7 @@
       <c r="C30" s="4">
         <v>352108143244742</v>
       </c>
-      <c r="D30" s="4">
-        <v>355642411152606</v>
-      </c>
+      <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
@@ -1454,6 +1470,9 @@
     <row r="213" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="214" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <sortState ref="A15:F19">
+    <sortCondition ref="B15"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
@@ -1461,4 +1480,1265 @@
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D89"/>
+  <sheetViews>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>44744</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="4">
+        <v>355642411010226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="4">
+        <v>352108142513121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4">
+        <v>352108143244742</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="4">
+        <v>352108143244825</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4">
+        <v>354430151777464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="4">
+        <v>354430152914801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="4">
+        <v>354430152349826</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="4">
+        <v>359546981700569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="4">
+        <v>359546981403024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="4">
+        <v>359546981679722</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="4">
+        <v>359546981419129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="4">
+        <v>350942913677547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="4">
+        <v>357398297033323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="4">
+        <v>357398297372127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="4">
+        <v>357398297003383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="4">
+        <v>357398297333988</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="4">
+        <v>357398297337724</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="4">
+        <v>359946902292920</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="4">
+        <v>359946902293928</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="4">
+        <v>357599272379025</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="4">
+        <v>357599272380726</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="4">
+        <v>356035118530803</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="4">
+        <v>351130091116483</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="4">
+        <v>356035119724504</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="4">
+        <v>351130091115725</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="4">
+        <v>356035118526744</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="4">
+        <v>351805994876222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="4">
+        <v>351805994865647</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="4">
+        <v>351805994880620</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="4">
+        <v>351805994865589</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="4">
+        <v>351805994880646</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>32</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="4">
+        <v>358425756287360</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="4">
+        <v>358425756386089</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>34</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="4">
+        <v>358425756401185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="4">
+        <v>358425756399165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="4">
+        <v>358425756278880</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>37</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="4">
+        <v>350954043645401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>38</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="4">
+        <v>350954043341043</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>39</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="4">
+        <v>352611792303685</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>40</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="4">
+        <v>351251782161362</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>41</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="4">
+        <v>351251782169126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>42</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="4">
+        <v>351251782206803</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>43</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="4">
+        <v>351251782168946</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>44</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="4">
+        <v>351251782160943</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>45</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="4">
+        <v>351251782203669</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>46</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="4">
+        <v>351251782197440</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>47</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="4">
+        <v>351251782161487</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>48</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="4">
+        <v>351251782162568</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>49</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="4">
+        <v>351251782197044</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>50</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="4">
+        <v>355482206891484</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>51</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="4">
+        <v>355482207474462</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>52</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="4">
+        <v>355482206953888</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>53</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="4">
+        <v>355482206859341</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>54</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="4">
+        <v>355482206956667</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>55</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="4">
+        <v>355482207034548</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>56</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" s="4">
+        <v>355482206893902</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>57</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="4">
+        <v>355482206892086</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>58</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" s="4">
+        <v>355482207469389</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>59</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" s="4">
+        <v>355482207591620</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>60</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" s="4">
+        <v>354150814997008</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>61</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" s="4">
+        <v>354150814996901</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>62</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65" s="4">
+        <v>354150814989401</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>63</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D66" s="4">
+        <v>354150814996083</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>64</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67" s="4">
+        <v>354150814996885</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>65</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D68" s="4">
+        <v>354150814997107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>66</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" s="4">
+        <v>354150814997420</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>67</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D70" s="4">
+        <v>354150814996943</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>68</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D71" s="4">
+        <v>354150814997305</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>69</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D72" s="4">
+        <v>354150814997180</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>70</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" s="4">
+        <v>357559442797860</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>71</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D74" s="4">
+        <v>357559442797969</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>72</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D75" s="4">
+        <v>357559442799726</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>73</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D76" s="4">
+        <v>357559442797605</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>74</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D77" s="4">
+        <v>357559442797902</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>75</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D78" s="4">
+        <v>357559442797563</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>76</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D79" s="4">
+        <v>357559442798009</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>77</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D80" s="4">
+        <v>357559442799767</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>78</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D81" s="4">
+        <v>357559442798082</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>79</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D82" s="4">
+        <v>357559442798108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>80</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D83" s="4">
+        <v>355645525855865</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>81</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D84" s="4">
+        <v>355645525855501</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>82</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D85" s="4">
+        <v>355645525855402</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>83</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D86" s="4">
+        <v>355645525855360</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>84</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D87" s="4">
+        <v>355645525849140</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>85</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D88" s="4">
+        <v>355645525849025</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>86</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D89" s="4">
+        <v>355645525848886</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>